--- a/WorkingFolder/Tables/corr3mvM.xlsx
+++ b/WorkingFolder/Tables/corr3mvM.xlsx
@@ -492,46 +492,46 @@
         <v>-0.7342914403765789</v>
       </c>
       <c r="D2">
-        <v>-0.1962399524895541</v>
+        <v>-0.189159659647154</v>
       </c>
       <c r="E2">
-        <v>0.09830410466420429</v>
+        <v>0.0956577578795192</v>
       </c>
       <c r="F2">
-        <v>0.032998516465909</v>
+        <v>0.03298253691557487</v>
       </c>
       <c r="G2">
-        <v>-0.0934620734574825</v>
+        <v>-0.09299971502374568</v>
       </c>
       <c r="H2">
-        <v>-0.03090202527938692</v>
+        <v>-0.05989893757236041</v>
       </c>
       <c r="J2">
-        <v>-0.04512954389305318</v>
+        <v>-0.05824571609997801</v>
       </c>
       <c r="K2">
-        <v>-0.1560035020374395</v>
+        <v>-0.1494911127189555</v>
       </c>
       <c r="L2">
-        <v>-0.05530915560250064</v>
+        <v>-0.1043516007832907</v>
       </c>
       <c r="M2">
-        <v>-0.09036892648121807</v>
+        <v>-0.09656379635806157</v>
       </c>
       <c r="N2">
-        <v>0.05789488352561366</v>
+        <v>0.04217011538748306</v>
       </c>
       <c r="O2">
-        <v>-0.1005307233677662</v>
+        <v>-0.1144752272881613</v>
       </c>
       <c r="P2">
-        <v>0.03081064107004896</v>
+        <v>0.02034454368830499</v>
       </c>
       <c r="Q2">
-        <v>-0.1441191491755383</v>
+        <v>-0.143378829685207</v>
       </c>
       <c r="R2">
-        <v>0.04335587601670272</v>
+        <v>0.03120943056409502</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -545,46 +545,46 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.2257543312297667</v>
+        <v>0.2125301326069027</v>
       </c>
       <c r="E3">
-        <v>-0.05325437581404793</v>
+        <v>-0.05531880183914338</v>
       </c>
       <c r="F3">
-        <v>0.00195447923574492</v>
+        <v>0.002678038600984968</v>
       </c>
       <c r="G3">
-        <v>0.09261433082909067</v>
+        <v>0.102593418178592</v>
       </c>
       <c r="H3">
-        <v>-0.05580975229038039</v>
+        <v>-0.04345523801470844</v>
       </c>
       <c r="J3">
-        <v>-0.04772037549788862</v>
+        <v>-0.02294459231763052</v>
       </c>
       <c r="K3">
-        <v>0.1739340030253661</v>
+        <v>0.158775156948585</v>
       </c>
       <c r="L3">
-        <v>0.0653609651603772</v>
+        <v>0.09866967570445913</v>
       </c>
       <c r="M3">
-        <v>-0.03876478274041471</v>
+        <v>-0.04734339998996136</v>
       </c>
       <c r="N3">
-        <v>-0.1098300560138147</v>
+        <v>-0.09583277978816673</v>
       </c>
       <c r="O3">
-        <v>0.1257701514726564</v>
+        <v>0.1405959713080313</v>
       </c>
       <c r="P3">
-        <v>-0.05803635673181506</v>
+        <v>-0.04777815539842905</v>
       </c>
       <c r="Q3">
-        <v>0.1402168148235588</v>
+        <v>0.1309388383387151</v>
       </c>
       <c r="R3">
-        <v>-0.008677372395631919</v>
+        <v>0.01224759455026274</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -592,52 +592,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.1962399524895541</v>
+        <v>-0.189159659647154</v>
       </c>
       <c r="C4">
-        <v>0.2257543312297667</v>
+        <v>0.2125301326069027</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>-0.7830464717749884</v>
+        <v>-0.7493962068288744</v>
       </c>
       <c r="F4">
-        <v>0.7803562131536922</v>
+        <v>0.7694196976433442</v>
       </c>
       <c r="G4">
-        <v>0.3723590277181201</v>
+        <v>0.3179411469843243</v>
       </c>
       <c r="H4">
-        <v>-0.2961520822446035</v>
+        <v>-0.2494502847149288</v>
       </c>
       <c r="J4">
-        <v>-0.2726347240374841</v>
+        <v>-0.3033481172167592</v>
       </c>
       <c r="K4">
-        <v>0.4316766032699471</v>
+        <v>0.4015523515806572</v>
       </c>
       <c r="L4">
-        <v>-0.6026782129644058</v>
+        <v>-0.5727500228386581</v>
       </c>
       <c r="M4">
-        <v>-0.06113963797852331</v>
+        <v>-0.07574937763848384</v>
       </c>
       <c r="N4">
-        <v>-0.5291006342329091</v>
+        <v>-0.4971150376806725</v>
       </c>
       <c r="O4">
-        <v>0.05517413269678741</v>
+        <v>0.1114722979239853</v>
       </c>
       <c r="P4">
-        <v>-0.4006919964452009</v>
+        <v>-0.3819033532437513</v>
       </c>
       <c r="Q4">
-        <v>0.3776249678363187</v>
+        <v>0.3454478151133055</v>
       </c>
       <c r="R4">
-        <v>-0.6160843427506494</v>
+        <v>-0.5891277964904179</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -645,52 +645,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.09830410466420429</v>
+        <v>0.0956577578795192</v>
       </c>
       <c r="C5">
-        <v>-0.05325437581404793</v>
+        <v>-0.05531880183914338</v>
       </c>
       <c r="D5">
-        <v>-0.7830464717749884</v>
+        <v>-0.7493962068288744</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>-0.8951133540257676</v>
+        <v>-0.8954460515141784</v>
       </c>
       <c r="G5">
-        <v>-0.3523480816861995</v>
+        <v>-0.3281901268206336</v>
       </c>
       <c r="H5">
-        <v>0.4288021802672208</v>
+        <v>0.3748955531446156</v>
       </c>
       <c r="J5">
-        <v>0.4169573803279829</v>
+        <v>0.3816964293772955</v>
       </c>
       <c r="K5">
-        <v>-0.5930079735043067</v>
+        <v>-0.6093742791727917</v>
       </c>
       <c r="L5">
-        <v>0.6738926793830198</v>
+        <v>0.6801099074534445</v>
       </c>
       <c r="M5">
-        <v>0.07462253056150882</v>
+        <v>0.07721240671536068</v>
       </c>
       <c r="N5">
-        <v>0.5162495414234214</v>
+        <v>0.4942970076750814</v>
       </c>
       <c r="O5">
-        <v>-0.01939330113043208</v>
+        <v>-0.02813934050008031</v>
       </c>
       <c r="P5">
-        <v>0.3623656247231753</v>
+        <v>0.3441744846429838</v>
       </c>
       <c r="Q5">
-        <v>-0.5735522075343725</v>
+        <v>-0.550566853378591</v>
       </c>
       <c r="R5">
-        <v>0.6480772671914237</v>
+        <v>0.6426805496216214</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -698,52 +698,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.032998516465909</v>
+        <v>0.03298253691557487</v>
       </c>
       <c r="C6">
-        <v>0.00195447923574492</v>
+        <v>0.002678038600984968</v>
       </c>
       <c r="D6">
-        <v>0.7803562131536922</v>
+        <v>0.7694196976433442</v>
       </c>
       <c r="E6">
-        <v>-0.8951133540257676</v>
+        <v>-0.8954460515141784</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3877854468527304</v>
+        <v>0.3584452866038336</v>
       </c>
       <c r="H6">
-        <v>-0.3420665431579729</v>
+        <v>-0.3817243282353112</v>
       </c>
       <c r="J6">
-        <v>-0.3614622404351162</v>
+        <v>-0.4261300346409569</v>
       </c>
       <c r="K6">
-        <v>0.381165200108897</v>
+        <v>0.3936451685116808</v>
       </c>
       <c r="L6">
-        <v>-0.6878469869735958</v>
+        <v>-0.694086968412218</v>
       </c>
       <c r="M6">
-        <v>-0.07716309872030104</v>
+        <v>-0.09685851345657408</v>
       </c>
       <c r="N6">
-        <v>-0.5544225913182496</v>
+        <v>-0.5526442553679262</v>
       </c>
       <c r="O6">
-        <v>0.05186498164314965</v>
+        <v>0.05383151016975546</v>
       </c>
       <c r="P6">
-        <v>-0.4231279660380416</v>
+        <v>-0.4195533350460475</v>
       </c>
       <c r="Q6">
-        <v>0.393778094060385</v>
+        <v>0.3596911983350313</v>
       </c>
       <c r="R6">
-        <v>-0.6003365294960168</v>
+        <v>-0.5916236419409803</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -751,52 +751,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.0934620734574825</v>
+        <v>-0.09299971502374568</v>
       </c>
       <c r="C7">
-        <v>0.09261433082909067</v>
+        <v>0.102593418178592</v>
       </c>
       <c r="D7">
-        <v>0.3723590277181201</v>
+        <v>0.3179411469843243</v>
       </c>
       <c r="E7">
-        <v>-0.3523480816861995</v>
+        <v>-0.3281901268206336</v>
       </c>
       <c r="F7">
-        <v>0.3877854468527304</v>
+        <v>0.3584452866038336</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.2649221587980661</v>
+        <v>0.2619152394178419</v>
       </c>
       <c r="J7">
-        <v>0.2871694501021778</v>
+        <v>0.2529850742589501</v>
       </c>
       <c r="K7">
-        <v>0.3556773062948647</v>
+        <v>0.3350808734353892</v>
       </c>
       <c r="L7">
-        <v>-0.07943800351287363</v>
+        <v>-0.08643860460969868</v>
       </c>
       <c r="M7">
-        <v>0.7901585285465408</v>
+        <v>0.779448656064079</v>
       </c>
       <c r="N7">
-        <v>0.01320113721997055</v>
+        <v>0.05749213078032143</v>
       </c>
       <c r="O7">
-        <v>0.08344216945832184</v>
+        <v>0.1739025695239392</v>
       </c>
       <c r="P7">
-        <v>-0.03140504786683422</v>
+        <v>0.02311440040280032</v>
       </c>
       <c r="Q7">
-        <v>0.312055133377972</v>
+        <v>0.2711932158332709</v>
       </c>
       <c r="R7">
-        <v>-0.1770569587467488</v>
+        <v>-0.1406704254457551</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -804,52 +804,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.03090202527938692</v>
+        <v>-0.05989893757236041</v>
       </c>
       <c r="C8">
-        <v>-0.05580975229038039</v>
+        <v>-0.04345523801470844</v>
       </c>
       <c r="D8">
-        <v>-0.2961520822446035</v>
+        <v>-0.2494502847149288</v>
       </c>
       <c r="E8">
-        <v>0.4288021802672208</v>
+        <v>0.3748955531446156</v>
       </c>
       <c r="F8">
-        <v>-0.3420665431579729</v>
+        <v>-0.3817243282353112</v>
       </c>
       <c r="G8">
-        <v>0.2649221587980661</v>
+        <v>0.2619152394178419</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9756835720325754</v>
+        <v>0.9668095370549465</v>
       </c>
       <c r="K8">
-        <v>0.1035449712268814</v>
+        <v>0.153344822805816</v>
       </c>
       <c r="L8">
-        <v>0.3441244062106453</v>
+        <v>0.5042301998987817</v>
       </c>
       <c r="M8">
-        <v>0.5525664340000542</v>
+        <v>0.6197304852958274</v>
       </c>
       <c r="N8">
-        <v>0.1143092234124155</v>
+        <v>0.3258471028357235</v>
       </c>
       <c r="O8">
-        <v>-0.178902248798498</v>
+        <v>-0.005762179461639035</v>
       </c>
       <c r="P8">
-        <v>-0.1334969423880662</v>
+        <v>0.109569831889264</v>
       </c>
       <c r="Q8">
-        <v>0.09298306032587959</v>
+        <v>0.1903397455737963</v>
       </c>
       <c r="R8">
-        <v>0.1866066871285048</v>
+        <v>0.2565303361096417</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -862,52 +862,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.04512954389305318</v>
+        <v>-0.05824571609997801</v>
       </c>
       <c r="C10">
-        <v>-0.04772037549788862</v>
+        <v>-0.02294459231763052</v>
       </c>
       <c r="D10">
-        <v>-0.2726347240374841</v>
+        <v>-0.3033481172167592</v>
       </c>
       <c r="E10">
-        <v>0.4169573803279829</v>
+        <v>0.3816964293772955</v>
       </c>
       <c r="F10">
-        <v>-0.3614622404351162</v>
+        <v>-0.4261300346409569</v>
       </c>
       <c r="G10">
-        <v>0.2871694501021778</v>
+        <v>0.2529850742589501</v>
       </c>
       <c r="H10">
-        <v>0.9756835720325754</v>
+        <v>0.9668095370549465</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.1386667420749065</v>
+        <v>0.1435064096221038</v>
       </c>
       <c r="L10">
-        <v>0.4220660186464948</v>
+        <v>0.5571744850310533</v>
       </c>
       <c r="M10">
-        <v>0.6049445664440193</v>
+        <v>0.6057457838870046</v>
       </c>
       <c r="N10">
-        <v>0.2095644421530553</v>
+        <v>0.431065527443969</v>
       </c>
       <c r="O10">
-        <v>-0.1136266978991359</v>
+        <v>0.02141133100128086</v>
       </c>
       <c r="P10">
-        <v>-0.03716329697887824</v>
+        <v>0.2280204233768813</v>
       </c>
       <c r="Q10">
-        <v>0.1386175701402727</v>
+        <v>0.1929807552993139</v>
       </c>
       <c r="R10">
-        <v>0.2229541809472831</v>
+        <v>0.3189536269809229</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -915,52 +915,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.1560035020374395</v>
+        <v>-0.1494911127189555</v>
       </c>
       <c r="C11">
-        <v>0.1739340030253661</v>
+        <v>0.158775156948585</v>
       </c>
       <c r="D11">
-        <v>0.4316766032699471</v>
+        <v>0.4015523515806572</v>
       </c>
       <c r="E11">
-        <v>-0.5930079735043067</v>
+        <v>-0.6093742791727917</v>
       </c>
       <c r="F11">
-        <v>0.381165200108897</v>
+        <v>0.3936451685116808</v>
       </c>
       <c r="G11">
-        <v>0.3556773062948647</v>
+        <v>0.3350808734353892</v>
       </c>
       <c r="H11">
-        <v>0.1035449712268814</v>
+        <v>0.153344822805816</v>
       </c>
       <c r="J11">
-        <v>0.1386667420749065</v>
+        <v>0.1435064096221038</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>-0.2131286714355794</v>
+        <v>-0.2630841920543963</v>
       </c>
       <c r="M11">
-        <v>0.2549213940832512</v>
+        <v>0.2403457624510068</v>
       </c>
       <c r="N11">
-        <v>-0.2004242281234041</v>
+        <v>-0.2172827789902214</v>
       </c>
       <c r="O11">
-        <v>-0.2829598134310876</v>
+        <v>-0.2768602018790545</v>
       </c>
       <c r="P11">
-        <v>-0.2106785456885837</v>
+        <v>-0.2261230290188869</v>
       </c>
       <c r="Q11">
-        <v>0.9313028399989013</v>
+        <v>0.9212081916131816</v>
       </c>
       <c r="R11">
-        <v>-0.3101909359850625</v>
+        <v>-0.362333011916985</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -968,52 +968,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.05530915560250064</v>
+        <v>-0.1043516007832907</v>
       </c>
       <c r="C12">
-        <v>0.0653609651603772</v>
+        <v>0.09866967570445913</v>
       </c>
       <c r="D12">
-        <v>-0.6026782129644058</v>
+        <v>-0.5727500228386581</v>
       </c>
       <c r="E12">
-        <v>0.6738926793830198</v>
+        <v>0.6801099074534445</v>
       </c>
       <c r="F12">
-        <v>-0.6878469869735958</v>
+        <v>-0.694086968412218</v>
       </c>
       <c r="G12">
-        <v>-0.07943800351287363</v>
+        <v>-0.08643860460969868</v>
       </c>
       <c r="H12">
-        <v>0.3441244062106453</v>
+        <v>0.5042301998987817</v>
       </c>
       <c r="J12">
-        <v>0.4220660186464948</v>
+        <v>0.5571744850310533</v>
       </c>
       <c r="K12">
-        <v>-0.2131286714355794</v>
+        <v>-0.2630841920543963</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.3070187090730062</v>
+        <v>0.2843010324439899</v>
       </c>
       <c r="N12">
-        <v>0.8231259379467152</v>
+        <v>0.7871503025869309</v>
       </c>
       <c r="O12">
-        <v>0.1070397072723449</v>
+        <v>0.07965621668814724</v>
       </c>
       <c r="P12">
-        <v>0.6958987468019193</v>
+        <v>0.6670077063190093</v>
       </c>
       <c r="Q12">
-        <v>-0.2585559769158761</v>
+        <v>-0.2304926056707239</v>
       </c>
       <c r="R12">
-        <v>0.893915179088171</v>
+        <v>0.8809551633059551</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -1021,52 +1021,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.09036892648121807</v>
+        <v>-0.09656379635806157</v>
       </c>
       <c r="C13">
-        <v>-0.03876478274041471</v>
+        <v>-0.04734339998996136</v>
       </c>
       <c r="D13">
-        <v>-0.06113963797852331</v>
+        <v>-0.07574937763848384</v>
       </c>
       <c r="E13">
-        <v>0.07462253056150882</v>
+        <v>0.07721240671536068</v>
       </c>
       <c r="F13">
-        <v>-0.07716309872030104</v>
+        <v>-0.09685851345657408</v>
       </c>
       <c r="G13">
-        <v>0.7901585285465408</v>
+        <v>0.779448656064079</v>
       </c>
       <c r="H13">
-        <v>0.5525664340000542</v>
+        <v>0.6197304852958274</v>
       </c>
       <c r="J13">
-        <v>0.6049445664440193</v>
+        <v>0.6057457838870046</v>
       </c>
       <c r="K13">
-        <v>0.2549213940832512</v>
+        <v>0.2403457624510068</v>
       </c>
       <c r="L13">
-        <v>0.3070187090730062</v>
+        <v>0.2843010324439899</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.3907090792591705</v>
+        <v>0.3827780702837997</v>
       </c>
       <c r="O13">
-        <v>0.02916130931377125</v>
+        <v>0.03840697036814979</v>
       </c>
       <c r="P13">
-        <v>0.2404984005372981</v>
+        <v>0.2428911207911757</v>
       </c>
       <c r="Q13">
-        <v>0.2739132978849191</v>
+        <v>0.2863353458644733</v>
       </c>
       <c r="R13">
-        <v>0.1948750658803702</v>
+        <v>0.1709379276053136</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1074,52 +1074,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.05789488352561366</v>
+        <v>0.04217011538748306</v>
       </c>
       <c r="C14">
-        <v>-0.1098300560138147</v>
+        <v>-0.09583277978816673</v>
       </c>
       <c r="D14">
-        <v>-0.5291006342329091</v>
+        <v>-0.4971150376806725</v>
       </c>
       <c r="E14">
-        <v>0.5162495414234214</v>
+        <v>0.4942970076750814</v>
       </c>
       <c r="F14">
-        <v>-0.5544225913182496</v>
+        <v>-0.5526442553679262</v>
       </c>
       <c r="G14">
-        <v>0.01320113721997055</v>
+        <v>0.05749213078032143</v>
       </c>
       <c r="H14">
-        <v>0.1143092234124155</v>
+        <v>0.3258471028357235</v>
       </c>
       <c r="J14">
-        <v>0.2095644421530553</v>
+        <v>0.431065527443969</v>
       </c>
       <c r="K14">
-        <v>-0.2004242281234041</v>
+        <v>-0.2172827789902214</v>
       </c>
       <c r="L14">
-        <v>0.8231259379467152</v>
+        <v>0.7871503025869309</v>
       </c>
       <c r="M14">
-        <v>0.3907090792591705</v>
+        <v>0.3827780702837997</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>0.2121774311466598</v>
+        <v>0.213183587903477</v>
       </c>
       <c r="P14">
-        <v>0.9537450613851911</v>
+        <v>0.9576445789701028</v>
       </c>
       <c r="Q14">
-        <v>-0.1829746516465043</v>
+        <v>-0.1389052493132368</v>
       </c>
       <c r="R14">
-        <v>0.8436745338976235</v>
+        <v>0.8156307420748278</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1127,52 +1127,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-0.1005307233677662</v>
+        <v>-0.1144752272881613</v>
       </c>
       <c r="C15">
-        <v>0.1257701514726564</v>
+        <v>0.1405959713080313</v>
       </c>
       <c r="D15">
-        <v>0.05517413269678741</v>
+        <v>0.1114722979239853</v>
       </c>
       <c r="E15">
-        <v>-0.01939330113043208</v>
+        <v>-0.02813934050008031</v>
       </c>
       <c r="F15">
-        <v>0.05186498164314965</v>
+        <v>0.05383151016975546</v>
       </c>
       <c r="G15">
-        <v>0.08344216945832184</v>
+        <v>0.1739025695239392</v>
       </c>
       <c r="H15">
-        <v>-0.178902248798498</v>
+        <v>-0.005762179461639035</v>
       </c>
       <c r="J15">
-        <v>-0.1136266978991359</v>
+        <v>0.02141133100128086</v>
       </c>
       <c r="K15">
-        <v>-0.2829598134310876</v>
+        <v>-0.2768602018790545</v>
       </c>
       <c r="L15">
-        <v>0.1070397072723449</v>
+        <v>0.07965621668814724</v>
       </c>
       <c r="M15">
-        <v>0.02916130931377125</v>
+        <v>0.03840697036814979</v>
       </c>
       <c r="N15">
-        <v>0.2121774311466598</v>
+        <v>0.213183587903477</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0.2462206291046317</v>
+        <v>0.2407003385657958</v>
       </c>
       <c r="Q15">
-        <v>-0.2387928270593511</v>
+        <v>-0.2164584615517044</v>
       </c>
       <c r="R15">
-        <v>0.0414039643743736</v>
+        <v>0.02799107386774778</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -1180,52 +1180,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.03081064107004896</v>
+        <v>0.02034454368830499</v>
       </c>
       <c r="C16">
-        <v>-0.05803635673181506</v>
+        <v>-0.04777815539842905</v>
       </c>
       <c r="D16">
-        <v>-0.4006919964452009</v>
+        <v>-0.3819033532437513</v>
       </c>
       <c r="E16">
-        <v>0.3623656247231753</v>
+        <v>0.3441744846429838</v>
       </c>
       <c r="F16">
-        <v>-0.4231279660380416</v>
+        <v>-0.4195533350460475</v>
       </c>
       <c r="G16">
-        <v>-0.03140504786683422</v>
+        <v>0.02311440040280032</v>
       </c>
       <c r="H16">
-        <v>-0.1334969423880662</v>
+        <v>0.109569831889264</v>
       </c>
       <c r="J16">
-        <v>-0.03716329697887824</v>
+        <v>0.2280204233768813</v>
       </c>
       <c r="K16">
-        <v>-0.2106785456885837</v>
+        <v>-0.2261230290188869</v>
       </c>
       <c r="L16">
-        <v>0.6958987468019193</v>
+        <v>0.6670077063190093</v>
       </c>
       <c r="M16">
-        <v>0.2404984005372981</v>
+        <v>0.2428911207911757</v>
       </c>
       <c r="N16">
-        <v>0.9537450613851911</v>
+        <v>0.9576445789701028</v>
       </c>
       <c r="O16">
-        <v>0.2462206291046317</v>
+        <v>0.2407003385657958</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>-0.1934983345752623</v>
+        <v>-0.1577812529357381</v>
       </c>
       <c r="R16">
-        <v>0.7836716039863928</v>
+        <v>0.7654879483954553</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -1233,52 +1233,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.1441191491755383</v>
+        <v>-0.143378829685207</v>
       </c>
       <c r="C17">
-        <v>0.1402168148235588</v>
+        <v>0.1309388383387151</v>
       </c>
       <c r="D17">
-        <v>0.3776249678363187</v>
+        <v>0.3454478151133055</v>
       </c>
       <c r="E17">
-        <v>-0.5735522075343725</v>
+        <v>-0.550566853378591</v>
       </c>
       <c r="F17">
-        <v>0.393778094060385</v>
+        <v>0.3596911983350313</v>
       </c>
       <c r="G17">
-        <v>0.312055133377972</v>
+        <v>0.2711932158332709</v>
       </c>
       <c r="H17">
-        <v>0.09298306032587959</v>
+        <v>0.1903397455737963</v>
       </c>
       <c r="J17">
-        <v>0.1386175701402727</v>
+        <v>0.1929807552993139</v>
       </c>
       <c r="K17">
-        <v>0.9313028399989013</v>
+        <v>0.9212081916131816</v>
       </c>
       <c r="L17">
-        <v>-0.2585559769158761</v>
+        <v>-0.2304926056707239</v>
       </c>
       <c r="M17">
-        <v>0.2739132978849191</v>
+        <v>0.2863353458644733</v>
       </c>
       <c r="N17">
-        <v>-0.1829746516465043</v>
+        <v>-0.1389052493132368</v>
       </c>
       <c r="O17">
-        <v>-0.2387928270593511</v>
+        <v>-0.2164584615517044</v>
       </c>
       <c r="P17">
-        <v>-0.1934983345752623</v>
+        <v>-0.1577812529357381</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>-0.3359512039661198</v>
+        <v>-0.3483315260529886</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -1286,49 +1286,49 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.04335587601670272</v>
+        <v>0.03120943056409502</v>
       </c>
       <c r="C18">
-        <v>-0.008677372395631919</v>
+        <v>0.01224759455026274</v>
       </c>
       <c r="D18">
-        <v>-0.6160843427506494</v>
+        <v>-0.5891277964904179</v>
       </c>
       <c r="E18">
-        <v>0.6480772671914237</v>
+        <v>0.6426805496216214</v>
       </c>
       <c r="F18">
-        <v>-0.6003365294960168</v>
+        <v>-0.5916236419409803</v>
       </c>
       <c r="G18">
-        <v>-0.1770569587467488</v>
+        <v>-0.1406704254457551</v>
       </c>
       <c r="H18">
-        <v>0.1866066871285048</v>
+        <v>0.2565303361096417</v>
       </c>
       <c r="J18">
-        <v>0.2229541809472831</v>
+        <v>0.3189536269809229</v>
       </c>
       <c r="K18">
-        <v>-0.3101909359850625</v>
+        <v>-0.362333011916985</v>
       </c>
       <c r="L18">
-        <v>0.893915179088171</v>
+        <v>0.8809551633059551</v>
       </c>
       <c r="M18">
-        <v>0.1948750658803702</v>
+        <v>0.1709379276053136</v>
       </c>
       <c r="N18">
-        <v>0.8436745338976235</v>
+        <v>0.8156307420748278</v>
       </c>
       <c r="O18">
-        <v>0.0414039643743736</v>
+        <v>0.02799107386774778</v>
       </c>
       <c r="P18">
-        <v>0.7836716039863928</v>
+        <v>0.7654879483954553</v>
       </c>
       <c r="Q18">
-        <v>-0.3359512039661198</v>
+        <v>-0.3483315260529886</v>
       </c>
       <c r="R18">
         <v>1</v>
